--- a/suppxls/Scen_UC_CCS.xlsx
+++ b/suppxls/Scen_UC_CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0CFC0-2C3E-4411-9DA5-1578241C9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFEF1A5-9144-4478-85D4-4A84F51E4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="26610" windowHeight="13740" xr2:uid="{7D8A882E-BBAF-4038-850C-EBC3BC737D57}"/>
+    <workbookView xWindow="870" yWindow="765" windowWidth="26610" windowHeight="13740" xr2:uid="{7D8A882E-BBAF-4038-850C-EBC3BC737D57}"/>
   </bookViews>
   <sheets>
     <sheet name="CCSConstraint-Items" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C270B425-DF09-4EC9-9D4A-3BA38A221F17}</author>
+    <author>tc={0C740F1B-16E8-467D-9BE1-5C8FB90FAD29}</author>
     <author>tc={A233249E-9E42-4601-90FC-262396C21E68}</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{C270B425-DF09-4EC9-9D4A-3BA38A221F17}">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{C270B425-DF09-4EC9-9D4A-3BA38A221F17}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +54,15 @@
     42 and 367 is the CO2/MWh with and without CCS, 56.1 is the emission factor for ngas, 0.405 is the efficiency of CCGT-CCS.</t>
       </text>
     </comment>
-    <comment ref="M12" authorId="1" shapeId="0" xr:uid="{A233249E-9E42-4601-90FC-262396C21E68}">
+    <comment ref="A13" authorId="1" shapeId="0" xr:uid="{0C740F1B-16E8-467D-9BE1-5C8FB90FAD29}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Leaving retrofits out for now</t>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="2" shapeId="0" xr:uid="{A233249E-9E42-4601-90FC-262396C21E68}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t/>
   </si>
@@ -207,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,6 +267,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -338,6 +353,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Bruno Merven" id="{681A06AA-5925-4C27-9D0D-CBB8225B74B2}" userId="Bruno Merven" providerId="None"/>
+  <person displayName="Bruno Merven" id="{469252C3-662F-4B1E-8A92-C10205592DE8}" userId="S::01405439@wf.uct.ac.za::c7f06137-2c3b-4c5c-8f38-fe1abbc96860" providerId="AD"/>
 </personList>
 </file>
 
@@ -638,10 +654,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="M8" dT="2022-06-07T10:21:44.06" personId="{681A06AA-5925-4C27-9D0D-CBB8225B74B2}" id="{C270B425-DF09-4EC9-9D4A-3BA38A221F17}">
+  <threadedComment ref="M9" dT="2022-06-07T10:21:44.06" personId="{681A06AA-5925-4C27-9D0D-CBB8225B74B2}" id="{C270B425-DF09-4EC9-9D4A-3BA38A221F17}">
     <text>42 and 367 is the CO2/MWh with and without CCS, 56.1 is the emission factor for ngas, 0.405 is the efficiency of CCGT-CCS.</text>
   </threadedComment>
-  <threadedComment ref="M12" dT="2022-06-07T10:21:44.06" personId="{681A06AA-5925-4C27-9D0D-CBB8225B74B2}" id="{A233249E-9E42-4601-90FC-262396C21E68}">
+  <threadedComment ref="A13" dT="2023-10-04T11:13:38.60" personId="{469252C3-662F-4B1E-8A92-C10205592DE8}" id="{0C740F1B-16E8-467D-9BE1-5C8FB90FAD29}">
+    <text>Leaving retrofits out for now</text>
+  </threadedComment>
+  <threadedComment ref="M15" dT="2022-06-07T10:21:44.06" personId="{681A06AA-5925-4C27-9D0D-CBB8225B74B2}" id="{A233249E-9E42-4601-90FC-262396C21E68}">
     <text>42 and 367 is the CO2/MWh with and without CCS, 56.1 is the emission factor for ngas, 0.405 is the efficiency of CCGT-CCS.</text>
   </threadedComment>
 </ThreadedComments>
@@ -652,13 +671,13 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD17"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -752,6 +771,9 @@
       <c r="H7" t="s">
         <v>42</v>
       </c>
+      <c r="J7">
+        <v>2017</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
@@ -767,23 +789,28 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>-(367-42)/367*56.1/0.405</f>
-        <v>-122.66626299323846</v>
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -794,171 +821,303 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>2017</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9">
-        <v>1</v>
+        <f>-(367-42)/367*56.1/0.405</f>
+        <v>-122.66626299323846</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="M10">
-        <v>-225.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>-225.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <f>-(367-42)/367*56.1/0.313</f>
         <v>-158.72152240339162</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H17" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14">
+      <c r="J17">
+        <v>2017</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J18">
+        <v>2017</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="K23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="M19">
+      <c r="K24" s="1"/>
+      <c r="M24">
         <v>1</v>
       </c>
     </row>
